--- a/data/pca/factorExposure/factorExposure_2012-08-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-08-21.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.002500517588573722</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001746986743919302</v>
+      </c>
+      <c r="C2">
+        <v>0.02897824837320855</v>
+      </c>
+      <c r="D2">
+        <v>0.003763181522912146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.0002788239907006635</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006570354436604116</v>
+      </c>
+      <c r="C4">
+        <v>0.08380420918474453</v>
+      </c>
+      <c r="D4">
+        <v>0.06564836082824434</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.005673785601002445</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01489393155227478</v>
+      </c>
+      <c r="C6">
+        <v>0.1179894214626696</v>
+      </c>
+      <c r="D6">
+        <v>0.0211296395311195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.0006719471973502989</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004931233913521436</v>
+      </c>
+      <c r="C7">
+        <v>0.05905735585549998</v>
+      </c>
+      <c r="D7">
+        <v>0.0307950475300302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0006697278575304218</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.004934180686432855</v>
+      </c>
+      <c r="C8">
+        <v>0.03598098574403803</v>
+      </c>
+      <c r="D8">
+        <v>0.03956837921152932</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.000605673734383328</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005551707205323773</v>
+      </c>
+      <c r="C9">
+        <v>0.07219270432446272</v>
+      </c>
+      <c r="D9">
+        <v>0.07181706095856055</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.001023396424404142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.002268313587645772</v>
+      </c>
+      <c r="C10">
+        <v>0.05202337894159423</v>
+      </c>
+      <c r="D10">
+        <v>-0.1842804421418653</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.0008326307869431952</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005943609824576022</v>
+      </c>
+      <c r="C11">
+        <v>0.0809258050715608</v>
+      </c>
+      <c r="D11">
+        <v>0.06605412354241262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0007322593966854529</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004438352126272364</v>
+      </c>
+      <c r="C12">
+        <v>0.06504713719416452</v>
+      </c>
+      <c r="D12">
+        <v>0.05021518223701636</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.00192095395522263</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008687657300166914</v>
+      </c>
+      <c r="C13">
+        <v>0.07110448356957835</v>
+      </c>
+      <c r="D13">
+        <v>0.05920822313176854</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001670984591364019</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0008298495218339213</v>
+      </c>
+      <c r="C14">
+        <v>0.04351658115008745</v>
+      </c>
+      <c r="D14">
+        <v>0.01055622135591634</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.001608845417106733</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005904911424372382</v>
+      </c>
+      <c r="C15">
+        <v>0.04082014025742592</v>
+      </c>
+      <c r="D15">
+        <v>0.02686055011903379</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.0002398539765236917</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005405424532411701</v>
+      </c>
+      <c r="C16">
+        <v>0.06478683175225371</v>
+      </c>
+      <c r="D16">
+        <v>0.05853006383360051</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.002725782065964222</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.00881390283834326</v>
+      </c>
+      <c r="C20">
+        <v>0.06422366119191295</v>
+      </c>
+      <c r="D20">
+        <v>0.05070813614797474</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005509254240007304</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009323980420844718</v>
+      </c>
+      <c r="C21">
+        <v>0.02041628246206075</v>
+      </c>
+      <c r="D21">
+        <v>0.03979977765401663</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.02041276857015087</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.007722870374695484</v>
+      </c>
+      <c r="C22">
+        <v>0.08732521999301598</v>
+      </c>
+      <c r="D22">
+        <v>0.1280977652790856</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.02007602447094569</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.00743033585935684</v>
+      </c>
+      <c r="C23">
+        <v>0.08773327008110331</v>
+      </c>
+      <c r="D23">
+        <v>0.1292161961539995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001241223105031474</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.00593253498537984</v>
+      </c>
+      <c r="C24">
+        <v>0.07729701761685855</v>
+      </c>
+      <c r="D24">
+        <v>0.06729100935780577</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.002890511789926444</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.00343417679051178</v>
+      </c>
+      <c r="C25">
+        <v>0.07837689094324546</v>
+      </c>
+      <c r="D25">
+        <v>0.06492619991441938</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.001237526585093286</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003624066928390135</v>
+      </c>
+      <c r="C26">
+        <v>0.03973907827330651</v>
+      </c>
+      <c r="D26">
+        <v>0.02091893404097352</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.006752821853088301</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.002277561032375979</v>
+      </c>
+      <c r="C28">
+        <v>0.1024971866641997</v>
+      </c>
+      <c r="D28">
+        <v>-0.3258610710539467</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.0006078835806518468</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.003264866722276632</v>
+      </c>
+      <c r="C29">
+        <v>0.04761299755273771</v>
+      </c>
+      <c r="D29">
+        <v>0.01016690336825954</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003007497516753365</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.00928968543272899</v>
+      </c>
+      <c r="C30">
+        <v>0.1415842819932464</v>
+      </c>
+      <c r="D30">
+        <v>0.1070594755720873</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.00191103792323529</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006189375940874728</v>
+      </c>
+      <c r="C31">
+        <v>0.04403417667705922</v>
+      </c>
+      <c r="D31">
+        <v>0.03018628207228243</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0002325115523390646</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.00438545255499116</v>
+      </c>
+      <c r="C32">
+        <v>0.03892741846535576</v>
+      </c>
+      <c r="D32">
+        <v>0.0195318104579901</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.0002018606866765133</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.008812536968871632</v>
+      </c>
+      <c r="C33">
+        <v>0.09052888391501306</v>
+      </c>
+      <c r="D33">
+        <v>0.06279883321019712</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.00107022222879517</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004449437275841172</v>
+      </c>
+      <c r="C34">
+        <v>0.05792091876754339</v>
+      </c>
+      <c r="D34">
+        <v>0.0583307669557554</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.002046765534568488</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005191026534485138</v>
+      </c>
+      <c r="C35">
+        <v>0.04071854410911568</v>
+      </c>
+      <c r="D35">
+        <v>0.01343826915871524</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004441392760952833</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001386055563011614</v>
+      </c>
+      <c r="C36">
+        <v>0.02532995783623266</v>
+      </c>
+      <c r="D36">
+        <v>0.02143888981961166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002658218824384698</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.008947729770425209</v>
+      </c>
+      <c r="C38">
+        <v>0.04088658046928825</v>
+      </c>
+      <c r="D38">
+        <v>0.01401789237266307</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01145799363945343</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001922313837086345</v>
+      </c>
+      <c r="C39">
+        <v>0.1123531502940804</v>
+      </c>
+      <c r="D39">
+        <v>0.08145919179143095</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.00416274729549402</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.002667361389833327</v>
+      </c>
+      <c r="C40">
+        <v>0.09140049822292343</v>
+      </c>
+      <c r="D40">
+        <v>0.01759025262035301</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.002360606801974853</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007536131491799825</v>
+      </c>
+      <c r="C41">
+        <v>0.04135864235139179</v>
+      </c>
+      <c r="D41">
+        <v>0.04066543333716398</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.001982483875433887</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003939419014865097</v>
+      </c>
+      <c r="C43">
+        <v>0.0542691068719225</v>
+      </c>
+      <c r="D43">
+        <v>0.02670594855435321</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.008023877795768788</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.001751278185814764</v>
+      </c>
+      <c r="C44">
+        <v>0.1047236691300418</v>
+      </c>
+      <c r="D44">
+        <v>0.06749196791506012</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001342959715481878</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.001531292991318081</v>
+      </c>
+      <c r="C46">
+        <v>0.03273695723165574</v>
+      </c>
+      <c r="D46">
+        <v>0.03268760606825621</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0002248863978866867</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002776982720710549</v>
+      </c>
+      <c r="C47">
+        <v>0.03530613578443515</v>
+      </c>
+      <c r="D47">
+        <v>0.02142656938954171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.004761176717049674</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.007680027501805886</v>
+      </c>
+      <c r="C48">
+        <v>0.03342261549628504</v>
+      </c>
+      <c r="D48">
+        <v>0.02892768045680131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.004510298346141209</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01728446921927175</v>
+      </c>
+      <c r="C49">
+        <v>0.1867246267217673</v>
+      </c>
+      <c r="D49">
+        <v>0.009036497136305551</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.000283703754075761</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.004035490849282553</v>
+      </c>
+      <c r="C50">
+        <v>0.04263360157775792</v>
+      </c>
+      <c r="D50">
+        <v>0.03883906213394888</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.0001617622826089715</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.00388519539950195</v>
+      </c>
+      <c r="C51">
+        <v>0.02654948560781916</v>
+      </c>
+      <c r="D51">
+        <v>0.02477677460880262</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.008322586565899738</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02147803591959473</v>
+      </c>
+      <c r="C53">
+        <v>0.1719073481796736</v>
+      </c>
+      <c r="D53">
+        <v>0.01942149497296532</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.003306026390759115</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.009440841623029831</v>
+      </c>
+      <c r="C54">
+        <v>0.05688151817948851</v>
+      </c>
+      <c r="D54">
+        <v>0.03972614853638014</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.001818667992314828</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.01008906208957818</v>
+      </c>
+      <c r="C55">
+        <v>0.1087774399660984</v>
+      </c>
+      <c r="D55">
+        <v>0.03478855700697247</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.009023579020121183</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02138763556225106</v>
+      </c>
+      <c r="C56">
+        <v>0.1746872656273023</v>
+      </c>
+      <c r="D56">
+        <v>0.01373236813274389</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.0006901046089325176</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01619773265506501</v>
+      </c>
+      <c r="C58">
+        <v>0.1060344853105883</v>
+      </c>
+      <c r="D58">
+        <v>0.06198177580198826</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.002739431678389248</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.009231634627288262</v>
+      </c>
+      <c r="C59">
+        <v>0.1676600158662371</v>
+      </c>
+      <c r="D59">
+        <v>-0.3476346635928257</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.008272071327742995</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02610856918969051</v>
+      </c>
+      <c r="C60">
+        <v>0.2236186496517355</v>
+      </c>
+      <c r="D60">
+        <v>0.01600302374779003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01019354136368357</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.002083907515931978</v>
+      </c>
+      <c r="C61">
+        <v>0.09408582636516667</v>
+      </c>
+      <c r="D61">
+        <v>0.05862579667646518</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1494407304257624</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1527708265660872</v>
+      </c>
+      <c r="C62">
+        <v>0.1020032329507547</v>
+      </c>
+      <c r="D62">
+        <v>0.0176564552652697</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.001148561788713076</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006519299583831488</v>
+      </c>
+      <c r="C63">
+        <v>0.0535720419214405</v>
+      </c>
+      <c r="D63">
+        <v>0.03281731547607951</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.01041163135555857</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01694140411561809</v>
+      </c>
+      <c r="C64">
+        <v>0.1064117931240827</v>
+      </c>
+      <c r="D64">
+        <v>0.05285420260254235</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.00852649227821776</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01781589440682425</v>
+      </c>
+      <c r="C65">
+        <v>0.1200481161648457</v>
+      </c>
+      <c r="D65">
+        <v>0.02474636124870826</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.001479193702415131</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01282918807540821</v>
+      </c>
+      <c r="C66">
+        <v>0.1604150573133631</v>
+      </c>
+      <c r="D66">
+        <v>0.1135701431356926</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.005850863559175109</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01536829631724237</v>
+      </c>
+      <c r="C67">
+        <v>0.07339744125409542</v>
+      </c>
+      <c r="D67">
+        <v>0.02559477816481269</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.004549028911892917</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>9.660868049065323e-05</v>
+      </c>
+      <c r="C68">
+        <v>0.08450334447615383</v>
+      </c>
+      <c r="D68">
+        <v>-0.258863433633523</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.0004541669279849474</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006040556608023146</v>
+      </c>
+      <c r="C69">
+        <v>0.05208506738654801</v>
+      </c>
+      <c r="D69">
+        <v>0.03730474159967596</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.001471868188731969</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.002558280886190177</v>
+      </c>
+      <c r="C70">
+        <v>0.008504929252830751</v>
+      </c>
+      <c r="D70">
+        <v>-0.001568947920324909</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.0003351851224386066</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.00457083798390964</v>
+      </c>
+      <c r="C71">
+        <v>0.08894186239456051</v>
+      </c>
+      <c r="D71">
+        <v>-0.3009845218357965</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.005210680018752978</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01832702809245117</v>
+      </c>
+      <c r="C72">
+        <v>0.1587707302481401</v>
+      </c>
+      <c r="D72">
+        <v>0.007452127669021529</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.00925144141773087</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03104697400514713</v>
+      </c>
+      <c r="C73">
+        <v>0.2819970345967223</v>
+      </c>
+      <c r="D73">
+        <v>0.05562345228031599</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.005380422608402475</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.002009841577541521</v>
+      </c>
+      <c r="C74">
+        <v>0.1031237333344971</v>
+      </c>
+      <c r="D74">
+        <v>0.03171437389220904</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.0008962729588011282</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01151048659491032</v>
+      </c>
+      <c r="C75">
+        <v>0.1207175957125026</v>
+      </c>
+      <c r="D75">
+        <v>0.02618020318037498</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01068270986947086</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02173510718107179</v>
+      </c>
+      <c r="C76">
+        <v>0.1459887907190908</v>
+      </c>
+      <c r="D76">
+        <v>0.05622385364507917</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.006607490337222629</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02140161721105197</v>
+      </c>
+      <c r="C77">
+        <v>0.1101732016071117</v>
+      </c>
+      <c r="D77">
+        <v>0.04666244159357073</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.004309378657308995</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01426963533079977</v>
+      </c>
+      <c r="C78">
+        <v>0.09882460620504482</v>
+      </c>
+      <c r="D78">
+        <v>0.08125754860414994</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02741538754957932</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03914190276507215</v>
+      </c>
+      <c r="C79">
+        <v>0.1573949610961845</v>
+      </c>
+      <c r="D79">
+        <v>0.02958043453538597</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006357749744879728</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.009524233800423929</v>
+      </c>
+      <c r="C80">
+        <v>0.04007094153273862</v>
+      </c>
+      <c r="D80">
+        <v>0.03237948370653647</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.00517546976386124</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01624187563506155</v>
+      </c>
+      <c r="C81">
+        <v>0.130949644670894</v>
+      </c>
+      <c r="D81">
+        <v>0.03757272699558309</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.0077365105330445</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.0195928559564142</v>
+      </c>
+      <c r="C82">
+        <v>0.1366503507506619</v>
+      </c>
+      <c r="D82">
+        <v>0.0358900532288984</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.00331347385525862</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01206956084185399</v>
+      </c>
+      <c r="C83">
+        <v>0.06456515702977206</v>
+      </c>
+      <c r="D83">
+        <v>0.04471872635640874</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.004156955394691958</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.006544391681046262</v>
+      </c>
+      <c r="C84">
+        <v>0.03521568125745238</v>
+      </c>
+      <c r="D84">
+        <v>0.01284834084786131</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01893731888656143</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02901901023145076</v>
+      </c>
+      <c r="C85">
+        <v>0.1234279069229584</v>
+      </c>
+      <c r="D85">
+        <v>0.03981851367645277</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002597057391316922</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.003847369776729637</v>
+      </c>
+      <c r="C86">
+        <v>0.05092787481615144</v>
+      </c>
+      <c r="D86">
+        <v>0.02518099428746104</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.001397085418311403</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.0117972079968506</v>
+      </c>
+      <c r="C87">
+        <v>0.1290962108063577</v>
+      </c>
+      <c r="D87">
+        <v>0.07186925952981808</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.008535928768357671</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002929982365193314</v>
+      </c>
+      <c r="C88">
+        <v>0.06355255765489791</v>
+      </c>
+      <c r="D88">
+        <v>0.02901106147186045</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01132091126782256</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.003000594276238133</v>
+      </c>
+      <c r="C89">
+        <v>0.1342147771866836</v>
+      </c>
+      <c r="D89">
+        <v>-0.3184077792881511</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.00205257815838062</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.005495002212768452</v>
+      </c>
+      <c r="C90">
+        <v>0.1155572562987367</v>
+      </c>
+      <c r="D90">
+        <v>-0.3130430318723613</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.002552333436367364</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01122586010758192</v>
+      </c>
+      <c r="C91">
+        <v>0.09898975148718762</v>
+      </c>
+      <c r="D91">
+        <v>0.02962733534526553</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.00599747860060495</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.000574564658049469</v>
+      </c>
+      <c r="C92">
+        <v>0.1289979118545432</v>
+      </c>
+      <c r="D92">
+        <v>-0.3252135087771875</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.001798832335947902</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.003091348322043021</v>
+      </c>
+      <c r="C93">
+        <v>0.1037688481797215</v>
+      </c>
+      <c r="D93">
+        <v>-0.3009856931830448</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.009902074916819364</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02218235376156694</v>
+      </c>
+      <c r="C94">
+        <v>0.140186081017132</v>
+      </c>
+      <c r="D94">
+        <v>0.0546727820628695</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.006697567682785835</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01588187355756878</v>
+      </c>
+      <c r="C95">
+        <v>0.1202001390690505</v>
+      </c>
+      <c r="D95">
+        <v>0.06865137197305914</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.01702023442358567</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03725405208917645</v>
+      </c>
+      <c r="C97">
+        <v>0.2249629984142941</v>
+      </c>
+      <c r="D97">
+        <v>0.00162281089529795</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.01175606897740253</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03929474775785514</v>
+      </c>
+      <c r="C98">
+        <v>0.2615314375536379</v>
+      </c>
+      <c r="D98">
+        <v>0.03026669165860823</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9866035004539262</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9806993596986111</v>
+      </c>
+      <c r="C99">
+        <v>-0.1206904878216683</v>
+      </c>
+      <c r="D99">
+        <v>-0.02479365161611718</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0006322270851470657</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.003256645992486608</v>
+      </c>
+      <c r="C101">
+        <v>0.04779530881342371</v>
+      </c>
+      <c r="D101">
+        <v>0.01083543602291234</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
